--- a/psg_code/input/label.xlsx
+++ b/psg_code/input/label.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\detect_snore\psg_code\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E754A5-03EB-4907-91F5-7B1BA62CBD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33390" yWindow="3015" windowWidth="21600" windowHeight="11295" xr2:uid="{76CDA867-72AE-4482-BADC-F86EFCDB2316}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$818</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="4">
   <si>
     <t>hy</t>
   </si>
@@ -47,14 +49,11 @@
   <si>
     <t>duration</t>
   </si>
-  <si>
-    <t>type</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,9 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,11 +400,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72EBFD9-1F5E-4966-9A8F-3808D8CAC281}">
-  <dimension ref="A1:C108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C818"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="B351" sqref="B351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7819 @@
         <v>1</v>
       </c>
     </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>6.2476851851851846E-2</v>
+      </c>
+      <c r="B109">
+        <v>10.38</v>
+      </c>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>6.2662037037037044E-2</v>
+      </c>
+      <c r="B110">
+        <v>12.61</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>6.2870370370370368E-2</v>
+      </c>
+      <c r="B111">
+        <v>14.47</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>6.3148148148148148E-2</v>
+      </c>
+      <c r="B112">
+        <v>15.38</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>6.33912037037037E-2</v>
+      </c>
+      <c r="B113">
+        <v>16.48</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>6.4097222222222222E-2</v>
+      </c>
+      <c r="B114">
+        <v>10.35</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>6.4328703703703707E-2</v>
+      </c>
+      <c r="B115">
+        <v>12.8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>6.4571759259259259E-2</v>
+      </c>
+      <c r="B116">
+        <v>13.35</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>6.491898148148148E-2</v>
+      </c>
+      <c r="B117">
+        <v>15.3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>6.5150462962962966E-2</v>
+      </c>
+      <c r="B118">
+        <v>20.9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>6.5451388888888892E-2</v>
+      </c>
+      <c r="B119">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>6.5694444444444444E-2</v>
+      </c>
+      <c r="B120">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="B121">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>6.6331018518518511E-2</v>
+      </c>
+      <c r="B122">
+        <v>20.28</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>6.6655092592592599E-2</v>
+      </c>
+      <c r="B123">
+        <v>15.34</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>6.6875000000000004E-2</v>
+      </c>
+      <c r="B124">
+        <v>21.62</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>6.7280092592592586E-2</v>
+      </c>
+      <c r="B125">
+        <v>12.43</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>6.7476851851851857E-2</v>
+      </c>
+      <c r="B126">
+        <v>17.34</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>6.7789351851851851E-2</v>
+      </c>
+      <c r="B127">
+        <v>21.15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>6.8113425925925938E-2</v>
+      </c>
+      <c r="B128">
+        <v>16.46</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>6.8391203703703704E-2</v>
+      </c>
+      <c r="B129">
+        <v>15.31</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>6.8645833333333336E-2</v>
+      </c>
+      <c r="B130">
+        <v>19.71</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>6.9074074074074079E-2</v>
+      </c>
+      <c r="B131">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>6.94212962962963E-2</v>
+      </c>
+      <c r="B132">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>6.9664351851851852E-2</v>
+      </c>
+      <c r="B133">
+        <v>22.08</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>7.0057870370370368E-2</v>
+      </c>
+      <c r="B134">
+        <v>22.38</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>7.0428240740740736E-2</v>
+      </c>
+      <c r="B135">
+        <v>23.45</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>7.0879629629629626E-2</v>
+      </c>
+      <c r="B136">
+        <v>20.88</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>7.1238425925925927E-2</v>
+      </c>
+      <c r="B137">
+        <v>20.28</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="B138">
+        <v>16.02</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>7.1793981481481486E-2</v>
+      </c>
+      <c r="B139">
+        <v>21.62</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>7.2129629629629641E-2</v>
+      </c>
+      <c r="B140">
+        <v>32.92</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>7.4050925925925923E-2</v>
+      </c>
+      <c r="B141">
+        <v>21.06</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>7.440972222222221E-2</v>
+      </c>
+      <c r="B142">
+        <v>14.04</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>7.4687500000000004E-2</v>
+      </c>
+      <c r="B143">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>7.5023148148148144E-2</v>
+      </c>
+      <c r="B144">
+        <v>20.28</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>7.5370370370370365E-2</v>
+      </c>
+      <c r="B145">
+        <v>15.89</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>7.5659722222222225E-2</v>
+      </c>
+      <c r="B146">
+        <v>17.63</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>7.5960648148148138E-2</v>
+      </c>
+      <c r="B147">
+        <v>12.17</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>7.5462962962962968E-2</v>
+      </c>
+      <c r="B148">
+        <v>14.51</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>7.6469907407407403E-2</v>
+      </c>
+      <c r="B149">
+        <v>17.91</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>7.678240740740741E-2</v>
+      </c>
+      <c r="B150">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>7.7048611111111109E-2</v>
+      </c>
+      <c r="B151">
+        <v>21.04</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>7.7442129629629639E-2</v>
+      </c>
+      <c r="B152">
+        <v>10.37</v>
+      </c>
+      <c r="C152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>7.7731481481481471E-2</v>
+      </c>
+      <c r="B153">
+        <v>14.72</v>
+      </c>
+      <c r="C153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>7.8009259259259264E-2</v>
+      </c>
+      <c r="B154">
+        <v>19.37</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>7.8333333333333324E-2</v>
+      </c>
+      <c r="B155">
+        <v>22.16</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>7.8692129629629626E-2</v>
+      </c>
+      <c r="B156">
+        <v>18.59</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>7.9039351851851861E-2</v>
+      </c>
+      <c r="B157">
+        <v>23.14</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>7.9432870370370376E-2</v>
+      </c>
+      <c r="B158">
+        <v>22.96</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>7.9803240740740744E-2</v>
+      </c>
+      <c r="B159">
+        <v>18.21</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>8.0115740740740737E-2</v>
+      </c>
+      <c r="B160">
+        <v>15.62</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>8.1585648148148157E-2</v>
+      </c>
+      <c r="B161">
+        <v>26.27</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>8.2013888888888886E-2</v>
+      </c>
+      <c r="B162">
+        <v>17.16</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>8.2465277777777776E-2</v>
+      </c>
+      <c r="B163">
+        <v>13.59</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>8.2719907407407409E-2</v>
+      </c>
+      <c r="B164">
+        <v>13.84</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>8.2986111111111108E-2</v>
+      </c>
+      <c r="B165">
+        <v>18.88</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="B166">
+        <v>19.11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>8.368055555555555E-2</v>
+      </c>
+      <c r="B167">
+        <v>19.45</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="B168">
+        <v>21.06</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>8.4374999999999992E-2</v>
+      </c>
+      <c r="B169">
+        <v>18.38</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>8.4664351851851852E-2</v>
+      </c>
+      <c r="B170">
+        <v>17.18</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>8.4953703703703698E-2</v>
+      </c>
+      <c r="B171">
+        <v>23.72</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>8.5462962962962963E-2</v>
+      </c>
+      <c r="B172">
+        <v>21.46</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>8.5810185185185184E-2</v>
+      </c>
+      <c r="B173">
+        <v>17.11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>8.6134259259259258E-2</v>
+      </c>
+      <c r="B174">
+        <v>19.53</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>8.6435185185185184E-2</v>
+      </c>
+      <c r="B175">
+        <v>23.58</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>8.6851851851851847E-2</v>
+      </c>
+      <c r="B176">
+        <v>17.29</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>8.7199074074074068E-2</v>
+      </c>
+      <c r="B177">
+        <v>16.34</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>8.7511574074074075E-2</v>
+      </c>
+      <c r="B178">
+        <v>20.99</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>8.8009259259259245E-2</v>
+      </c>
+      <c r="B179">
+        <v>14.6</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>8.8298611111111105E-2</v>
+      </c>
+      <c r="B180">
+        <v>24.14</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>8.8703703703703715E-2</v>
+      </c>
+      <c r="B181">
+        <v>23.56</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>8.9085648148148136E-2</v>
+      </c>
+      <c r="B182">
+        <v>18.23</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>8.9409722222222224E-2</v>
+      </c>
+      <c r="B183">
+        <v>20.79</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>8.9768518518518525E-2</v>
+      </c>
+      <c r="B184">
+        <v>21.27</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>9.0115740740740746E-2</v>
+      </c>
+      <c r="B185">
+        <v>21.77</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>9.0451388888888887E-2</v>
+      </c>
+      <c r="B186">
+        <v>24.26</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>9.0798611111111108E-2</v>
+      </c>
+      <c r="B187">
+        <v>24.62</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>9.121527777777777E-2</v>
+      </c>
+      <c r="B188">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>9.1585648148148138E-2</v>
+      </c>
+      <c r="B189">
+        <v>20.56</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>9.195601851851852E-2</v>
+      </c>
+      <c r="B190">
+        <v>21.8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>9.2349537037037036E-2</v>
+      </c>
+      <c r="B191">
+        <v>19.72</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>9.2673611111111109E-2</v>
+      </c>
+      <c r="B192">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>9.300925925925925E-2</v>
+      </c>
+      <c r="B193">
+        <v>14.89</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>9.331018518518519E-2</v>
+      </c>
+      <c r="B194">
+        <v>12.14</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>9.3634259259259264E-2</v>
+      </c>
+      <c r="B195">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>9.3946759259259258E-2</v>
+      </c>
+      <c r="B196">
+        <v>21.96</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>9.4282407407407412E-2</v>
+      </c>
+      <c r="B197">
+        <v>24.38</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>9.4675925925925927E-2</v>
+      </c>
+      <c r="B198">
+        <v>21.32</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>9.5046296296296295E-2</v>
+      </c>
+      <c r="B199">
+        <v>19.7</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>9.5347222222222208E-2</v>
+      </c>
+      <c r="B200">
+        <v>18.97</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>9.571759259259259E-2</v>
+      </c>
+      <c r="B201">
+        <v>16.61</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>9.600694444444445E-2</v>
+      </c>
+      <c r="B202">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>9.6481481481481488E-2</v>
+      </c>
+      <c r="B203">
+        <v>23.05</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>9.6886574074074083E-2</v>
+      </c>
+      <c r="B204">
+        <v>19.14</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>9.7280092592592585E-2</v>
+      </c>
+      <c r="B205">
+        <v>13.07</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>9.7534722222222217E-2</v>
+      </c>
+      <c r="B206">
+        <v>19.2</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>9.7824074074074077E-2</v>
+      </c>
+      <c r="B207">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>9.8229166666666659E-2</v>
+      </c>
+      <c r="B208">
+        <v>14.3</v>
+      </c>
+      <c r="C208" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>9.8483796296296292E-2</v>
+      </c>
+      <c r="B209">
+        <v>25.64</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>9.8877314814814821E-2</v>
+      </c>
+      <c r="B210">
+        <v>18.66</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>9.9178240740740733E-2</v>
+      </c>
+      <c r="B211">
+        <v>13.16</v>
+      </c>
+      <c r="C211" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>9.9525462962962954E-2</v>
+      </c>
+      <c r="B212">
+        <v>22.4</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>9.9895833333333336E-2</v>
+      </c>
+      <c r="B213">
+        <v>26.54</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>0.10035879629629629</v>
+      </c>
+      <c r="B214">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>0.1006712962962963</v>
+      </c>
+      <c r="B215">
+        <v>26.01</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>0.10098379629629629</v>
+      </c>
+      <c r="B216">
+        <v>14.24</v>
+      </c>
+      <c r="C216" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>0.1012037037037037</v>
+      </c>
+      <c r="B217">
+        <v>17.84</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>0.10149305555555554</v>
+      </c>
+      <c r="B218">
+        <v>23.66</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>0.10190972222222222</v>
+      </c>
+      <c r="B219">
+        <v>26.42</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>0.10231481481481482</v>
+      </c>
+      <c r="B220">
+        <v>23.87</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>0.1027199074074074</v>
+      </c>
+      <c r="B221">
+        <v>21.26</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>0.10305555555555555</v>
+      </c>
+      <c r="B222">
+        <v>34.17</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>0.10357638888888888</v>
+      </c>
+      <c r="B223">
+        <v>19.79</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>0.10391203703703704</v>
+      </c>
+      <c r="B224">
+        <v>27.87</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>0.10436342592592592</v>
+      </c>
+      <c r="B225">
+        <v>30.42</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>0.10475694444444444</v>
+      </c>
+      <c r="B226">
+        <v>13.12</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>0.10505787037037036</v>
+      </c>
+      <c r="B227">
+        <v>20.49</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>0.10541666666666667</v>
+      </c>
+      <c r="B228">
+        <v>18.52</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>0.10577546296296296</v>
+      </c>
+      <c r="B229">
+        <v>58.52</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>0.10671296296296295</v>
+      </c>
+      <c r="B230">
+        <v>20.76</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>0.10714120370370371</v>
+      </c>
+      <c r="B231">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>0.1074537037037037</v>
+      </c>
+      <c r="B232">
+        <v>22.34</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>0.10781249999999999</v>
+      </c>
+      <c r="B233">
+        <v>14.09</v>
+      </c>
+      <c r="C233" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>0.10820601851851852</v>
+      </c>
+      <c r="B234">
+        <v>13.41</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>0.10847222222222223</v>
+      </c>
+      <c r="B235">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>0.10878472222222223</v>
+      </c>
+      <c r="B236">
+        <v>17.78</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>0.10907407407407409</v>
+      </c>
+      <c r="B237">
+        <v>24.85</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>0.10953703703703704</v>
+      </c>
+      <c r="B238">
+        <v>21.24</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>0.10981481481481481</v>
+      </c>
+      <c r="B239">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="C239" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>0.11016203703703703</v>
+      </c>
+      <c r="B240">
+        <v>16.77</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>0.11042824074074074</v>
+      </c>
+      <c r="B241">
+        <v>55.11</v>
+      </c>
+      <c r="C241" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>0.11119212962962964</v>
+      </c>
+      <c r="B242">
+        <v>15.62</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>0.11148148148148147</v>
+      </c>
+      <c r="B243">
+        <v>17.02</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>0.11174768518518519</v>
+      </c>
+      <c r="B244">
+        <v>15.42</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>0.11208333333333333</v>
+      </c>
+      <c r="B245">
+        <v>21.35</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>0.11247685185185186</v>
+      </c>
+      <c r="B246">
+        <v>23.22</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>0.11288194444444444</v>
+      </c>
+      <c r="B247">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>0.11321759259259261</v>
+      </c>
+      <c r="B248">
+        <v>18.04</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>0.1135300925925926</v>
+      </c>
+      <c r="B249">
+        <v>17.61</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>0.11387731481481482</v>
+      </c>
+      <c r="B250">
+        <v>22.48</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>0.11421296296296296</v>
+      </c>
+      <c r="B251">
+        <v>13.42</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>0.11446759259259259</v>
+      </c>
+      <c r="B252">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>0.11481481481481481</v>
+      </c>
+      <c r="B253">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>0.11549768518518518</v>
+      </c>
+      <c r="B254">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="C254" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>0.11618055555555555</v>
+      </c>
+      <c r="B255">
+        <v>14.79</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>0.11648148148148148</v>
+      </c>
+      <c r="B256">
+        <v>11.4</v>
+      </c>
+      <c r="C256" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>0.11667824074074074</v>
+      </c>
+      <c r="B257">
+        <v>18.16</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>0.1169675925925926</v>
+      </c>
+      <c r="B258">
+        <v>19.61</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>0.11733796296296296</v>
+      </c>
+      <c r="B259">
+        <v>21.96</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>0.11773148148148148</v>
+      </c>
+      <c r="B260">
+        <v>17.34</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>0.11804398148148149</v>
+      </c>
+      <c r="B261">
+        <v>23.7</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>0.11841435185185185</v>
+      </c>
+      <c r="B262">
+        <v>22.66</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>0.11878472222222221</v>
+      </c>
+      <c r="B263">
+        <v>25.32</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>0.11920138888888888</v>
+      </c>
+      <c r="B264">
+        <v>17.27</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>0.11950231481481481</v>
+      </c>
+      <c r="B265">
+        <v>31.14</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>0.11996527777777777</v>
+      </c>
+      <c r="B266">
+        <v>17.48</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>0.12026620370370371</v>
+      </c>
+      <c r="B267">
+        <v>51.51</v>
+      </c>
+      <c r="C267" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>0.12135416666666667</v>
+      </c>
+      <c r="B268">
+        <v>14.88</v>
+      </c>
+      <c r="C268" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>0.12174768518518519</v>
+      </c>
+      <c r="B269">
+        <v>44.37</v>
+      </c>
+      <c r="C269" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>0.1223611111111111</v>
+      </c>
+      <c r="B270">
+        <v>20.29</v>
+      </c>
+      <c r="C270" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>0.12273148148148148</v>
+      </c>
+      <c r="B271">
+        <v>11.42</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>0.12290509259259259</v>
+      </c>
+      <c r="B272">
+        <v>21.84</v>
+      </c>
+      <c r="C272" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>0.12320601851851852</v>
+      </c>
+      <c r="B273">
+        <v>30.64</v>
+      </c>
+      <c r="C273" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>0.12373842592592592</v>
+      </c>
+      <c r="B274">
+        <v>12.8</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>0.12413194444444443</v>
+      </c>
+      <c r="B275">
+        <v>10.57</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>0.124375</v>
+      </c>
+      <c r="B276">
+        <v>11.13</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>0.12462962962962963</v>
+      </c>
+      <c r="B277">
+        <v>12.97</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>0.12487268518518518</v>
+      </c>
+      <c r="B278">
+        <v>23.64</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>0.12527777777777779</v>
+      </c>
+      <c r="B279">
+        <v>20.86</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>0.12570601851851851</v>
+      </c>
+      <c r="B280">
+        <v>14.74</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>0.12593750000000001</v>
+      </c>
+      <c r="B281">
+        <v>19.72</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>0.12631944444444446</v>
+      </c>
+      <c r="B282">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>0.12693287037037038</v>
+      </c>
+      <c r="B283">
+        <v>12.6</v>
+      </c>
+      <c r="C283" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>0.12722222222222221</v>
+      </c>
+      <c r="B284">
+        <v>14.88</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>0.12753472222222223</v>
+      </c>
+      <c r="B285">
+        <v>16.39</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>0.12788194444444445</v>
+      </c>
+      <c r="B286">
+        <v>15.38</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>0.12821759259259261</v>
+      </c>
+      <c r="B287">
+        <v>15.17</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="B288">
+        <v>12.3</v>
+      </c>
+      <c r="C288" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>0.12881944444444446</v>
+      </c>
+      <c r="B289">
+        <v>17.8</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>0.12921296296296295</v>
+      </c>
+      <c r="B290">
+        <v>10.14</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>0.12942129629629631</v>
+      </c>
+      <c r="B291">
+        <v>16.02</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>0.12974537037037037</v>
+      </c>
+      <c r="B292">
+        <v>19.84</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>0.13012731481481482</v>
+      </c>
+      <c r="B293">
+        <v>22.56</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>0.13050925925925924</v>
+      </c>
+      <c r="B294">
+        <v>20.54</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>0.13119212962962964</v>
+      </c>
+      <c r="B295">
+        <v>14.64</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>0.13145833333333332</v>
+      </c>
+      <c r="B296">
+        <v>20.48</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>0.1318287037037037</v>
+      </c>
+      <c r="B297">
+        <v>26.74</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>0.13229166666666667</v>
+      </c>
+      <c r="B298">
+        <v>19.64</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>0.13270833333333334</v>
+      </c>
+      <c r="B299">
+        <v>20.72</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>0.1330324074074074</v>
+      </c>
+      <c r="B300">
+        <v>11.54</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>0.13340277777777779</v>
+      </c>
+      <c r="B301">
+        <v>10.01</v>
+      </c>
+      <c r="C301" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>0.13365740740740742</v>
+      </c>
+      <c r="B302">
+        <v>11.22</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>0.13390046296296296</v>
+      </c>
+      <c r="B303">
+        <v>17.16</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>0.13428240740740741</v>
+      </c>
+      <c r="B304">
+        <v>19.05</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>0.13465277777777776</v>
+      </c>
+      <c r="B305">
+        <v>22.05</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>0.13517361111111112</v>
+      </c>
+      <c r="B306">
+        <v>19.34</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>0.13548611111111111</v>
+      </c>
+      <c r="B307">
+        <v>11.78</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>0.13575231481481481</v>
+      </c>
+      <c r="B308">
+        <v>27.11</v>
+      </c>
+      <c r="C308" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>0.13622685185185185</v>
+      </c>
+      <c r="B309">
+        <v>25.53</v>
+      </c>
+      <c r="C309" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>0.13671296296296295</v>
+      </c>
+      <c r="B310">
+        <v>22.43</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>0.13714120370370372</v>
+      </c>
+      <c r="B311">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>0.13745370370370372</v>
+      </c>
+      <c r="B312">
+        <v>14.61</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>0.13767361111111112</v>
+      </c>
+      <c r="B313">
+        <v>25.8</v>
+      </c>
+      <c r="C313" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>0.13805555555555557</v>
+      </c>
+      <c r="B314">
+        <v>105.2</v>
+      </c>
+      <c r="C314" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="B315">
+        <v>13.38</v>
+      </c>
+      <c r="C315" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>0.13989583333333333</v>
+      </c>
+      <c r="B316">
+        <v>12.4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>0.14020833333333335</v>
+      </c>
+      <c r="B317">
+        <v>14.9</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>0.14059027777777777</v>
+      </c>
+      <c r="B318">
+        <v>17.64</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>0.14096064814814815</v>
+      </c>
+      <c r="B319">
+        <v>17.27</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>0.1414236111111111</v>
+      </c>
+      <c r="B320">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="C320" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>0.14175925925925925</v>
+      </c>
+      <c r="B321">
+        <v>18.18</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>0.14217592592592593</v>
+      </c>
+      <c r="B322">
+        <v>17.36</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>0.14256944444444444</v>
+      </c>
+      <c r="B323">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>0.14287037037037037</v>
+      </c>
+      <c r="B324">
+        <v>21.5</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>0.14328703703703705</v>
+      </c>
+      <c r="B325">
+        <v>23.3</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>0.14371527777777779</v>
+      </c>
+      <c r="B326">
+        <v>18.79</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>0.14406250000000001</v>
+      </c>
+      <c r="B327">
+        <v>25.24</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>0.14449074074074073</v>
+      </c>
+      <c r="B328">
+        <v>20.81</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>0.14484953703703704</v>
+      </c>
+      <c r="B329">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>0.14524305555555556</v>
+      </c>
+      <c r="B330">
+        <v>18.23</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>0.14550925925925925</v>
+      </c>
+      <c r="B331">
+        <v>22.73</v>
+      </c>
+      <c r="C331" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>0.14582175925925925</v>
+      </c>
+      <c r="B332">
+        <v>11.44</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>0.14603009259259259</v>
+      </c>
+      <c r="B333">
+        <v>30.76</v>
+      </c>
+      <c r="C333" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>0.14640046296296297</v>
+      </c>
+      <c r="B334">
+        <v>13.07</v>
+      </c>
+      <c r="C334" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>0.14685185185185184</v>
+      </c>
+      <c r="B335">
+        <v>11.02</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>0.14703703703703705</v>
+      </c>
+      <c r="B336">
+        <v>20.43</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>0.14729166666666668</v>
+      </c>
+      <c r="B337">
+        <v>14.54</v>
+      </c>
+      <c r="C337" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>0.14747685185185186</v>
+      </c>
+      <c r="B338">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="C338" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>0.14783564814814815</v>
+      </c>
+      <c r="B339">
+        <v>15.85</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>0.14813657407407407</v>
+      </c>
+      <c r="B340">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>0.14854166666666666</v>
+      </c>
+      <c r="B341">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>0.14895833333333333</v>
+      </c>
+      <c r="B342">
+        <v>18.04</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>0.14929398148148149</v>
+      </c>
+      <c r="B343">
+        <v>12.62</v>
+      </c>
+      <c r="C343" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>0.14954861111111112</v>
+      </c>
+      <c r="B344">
+        <v>16.02</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>0.14987268518518518</v>
+      </c>
+      <c r="B345">
+        <v>19.41</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>0.15016203703703704</v>
+      </c>
+      <c r="B346">
+        <v>22.8</v>
+      </c>
+      <c r="C346" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>0.15050925925925926</v>
+      </c>
+      <c r="B347">
+        <v>25.06</v>
+      </c>
+      <c r="C347" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>0.15091435185185184</v>
+      </c>
+      <c r="B348">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="C348" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>0.15140046296296297</v>
+      </c>
+      <c r="B349">
+        <v>11.26</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>0.15206018518518519</v>
+      </c>
+      <c r="B350">
+        <v>1.45</v>
+      </c>
+      <c r="C350" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>0.15334490740740742</v>
+      </c>
+      <c r="B351">
+        <v>12.32</v>
+      </c>
+      <c r="C351" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>0.15361111111111111</v>
+      </c>
+      <c r="B352">
+        <v>16.87</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>0.1539351851851852</v>
+      </c>
+      <c r="B353">
+        <v>17.89</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>0.15427083333333333</v>
+      </c>
+      <c r="B354">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>0.15461805555555555</v>
+      </c>
+      <c r="B355">
+        <v>21.56</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>0.15502314814814813</v>
+      </c>
+      <c r="B356">
+        <v>19.38</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>0.15539351851851851</v>
+      </c>
+      <c r="B357">
+        <v>18.78</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>0.15586805555555555</v>
+      </c>
+      <c r="B358">
+        <v>16.93</v>
+      </c>
+      <c r="C358" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>0.15622685185185184</v>
+      </c>
+      <c r="B359">
+        <v>11.09</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>0.15645833333333334</v>
+      </c>
+      <c r="B360">
+        <v>15.31</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>0.15682870370370369</v>
+      </c>
+      <c r="B361">
+        <v>12.21</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>0.15721064814814814</v>
+      </c>
+      <c r="B362">
+        <v>16.18</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>0.15744212962962964</v>
+      </c>
+      <c r="B363">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>0.15805555555555556</v>
+      </c>
+      <c r="B364">
+        <v>23.63</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>0.15849537037037037</v>
+      </c>
+      <c r="B365">
+        <v>16.64</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>0.15886574074074075</v>
+      </c>
+      <c r="B366">
+        <v>11.76</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>0.15915509259259258</v>
+      </c>
+      <c r="B367">
+        <v>19.97</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>0.15953703703703703</v>
+      </c>
+      <c r="B368">
+        <v>29.76</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>0.15994212962962964</v>
+      </c>
+      <c r="B369">
+        <v>11.09</v>
+      </c>
+      <c r="C369" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>0.16021990740740741</v>
+      </c>
+      <c r="B370">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>0.16060185185185186</v>
+      </c>
+      <c r="B371">
+        <v>26.7</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>0.16112268518518519</v>
+      </c>
+      <c r="B372">
+        <v>24.04</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>0.16153935185185184</v>
+      </c>
+      <c r="B373">
+        <v>27.49</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>0.16201388888888887</v>
+      </c>
+      <c r="B374">
+        <v>29.24</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="B375">
+        <v>31.35</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>0.16302083333333334</v>
+      </c>
+      <c r="B376">
+        <v>20.59</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>0.16341435185185185</v>
+      </c>
+      <c r="B377">
+        <v>15.72</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>0.16377314814814814</v>
+      </c>
+      <c r="B378">
+        <v>44.35</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>0.16442129629629629</v>
+      </c>
+      <c r="B379">
+        <v>15.41</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>0.16473379629629628</v>
+      </c>
+      <c r="B380">
+        <v>23.49</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>0.16516203703703705</v>
+      </c>
+      <c r="B381">
+        <v>35.74</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>0.16571759259259258</v>
+      </c>
+      <c r="B382">
+        <v>38.53</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>0.16635416666666666</v>
+      </c>
+      <c r="B383">
+        <v>32.57</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>0.166875</v>
+      </c>
+      <c r="B384">
+        <v>36.4</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>0.16744212962962965</v>
+      </c>
+      <c r="B385">
+        <v>14.48</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>0.16769675925925928</v>
+      </c>
+      <c r="B386">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>0.16803240740740741</v>
+      </c>
+      <c r="B387">
+        <v>19.93</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>0.16843750000000002</v>
+      </c>
+      <c r="B388">
+        <v>24.72</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>0.16887731481481483</v>
+      </c>
+      <c r="B389">
+        <v>22.63</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>0.16929398148148148</v>
+      </c>
+      <c r="B390">
+        <v>25.75</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>0.16973379629629629</v>
+      </c>
+      <c r="B391">
+        <v>22.76</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>0.17002314814814815</v>
+      </c>
+      <c r="B392">
+        <v>28</v>
+      </c>
+      <c r="C392" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>0.17049768518518518</v>
+      </c>
+      <c r="B393">
+        <v>16.82</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>0.17078703703703704</v>
+      </c>
+      <c r="B394">
+        <v>22.22</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>0.1711111111111111</v>
+      </c>
+      <c r="B395">
+        <v>24.78</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>0.17150462962962965</v>
+      </c>
+      <c r="B396">
+        <v>48.13</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>0.17225694444444442</v>
+      </c>
+      <c r="B397">
+        <v>12.9</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>0.17255787037037038</v>
+      </c>
+      <c r="B398">
+        <v>25.32</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>0.17297453703703702</v>
+      </c>
+      <c r="B399">
+        <v>11.34</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>0.17325231481481482</v>
+      </c>
+      <c r="B400">
+        <v>12.27</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>0.17358796296296297</v>
+      </c>
+      <c r="B401">
+        <v>13.85</v>
+      </c>
+      <c r="C401" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>0.17378472222222222</v>
+      </c>
+      <c r="B402">
+        <v>10.57</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>0.17395833333333333</v>
+      </c>
+      <c r="B403">
+        <v>11.35</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>0.17422453703703702</v>
+      </c>
+      <c r="B404">
+        <v>26.69</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>0.17473379629629629</v>
+      </c>
+      <c r="B405">
+        <v>27.22</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>0.17518518518518519</v>
+      </c>
+      <c r="B406">
+        <v>30.31</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>0.17565972222222223</v>
+      </c>
+      <c r="B407">
+        <v>22.62</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>0.17606481481481481</v>
+      </c>
+      <c r="B408">
+        <v>26.24</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>0.17652777777777776</v>
+      </c>
+      <c r="B409">
+        <v>58.02</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>0.17736111111111111</v>
+      </c>
+      <c r="B410">
+        <v>14.84</v>
+      </c>
+      <c r="C410" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>0.17770833333333333</v>
+      </c>
+      <c r="B411">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>0.17821759259259259</v>
+      </c>
+      <c r="B412">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>0.17853009259259259</v>
+      </c>
+      <c r="B413">
+        <v>26.86</v>
+      </c>
+      <c r="C413" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>0.17898148148148149</v>
+      </c>
+      <c r="B414">
+        <v>16.57</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>0.17937499999999998</v>
+      </c>
+      <c r="B415">
+        <v>27.87</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>0.17983796296296295</v>
+      </c>
+      <c r="B416">
+        <v>15.52</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>0.18012731481481481</v>
+      </c>
+      <c r="B417">
+        <v>12.06</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>0.18042824074074074</v>
+      </c>
+      <c r="B418">
+        <v>13.87</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>0.1807175925925926</v>
+      </c>
+      <c r="B419">
+        <v>20.36</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>0.18121527777777779</v>
+      </c>
+      <c r="B420">
+        <v>27.67</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>0.18171296296296294</v>
+      </c>
+      <c r="B421">
+        <v>15.74</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>0.18206018518518519</v>
+      </c>
+      <c r="B422">
+        <v>26.89</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>0.18254629629629629</v>
+      </c>
+      <c r="B423">
+        <v>11.06</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>0.18280092592592592</v>
+      </c>
+      <c r="B424">
+        <v>40.11</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>0.18332175925925928</v>
+      </c>
+      <c r="B425">
+        <v>27.17</v>
+      </c>
+      <c r="C425" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>0.18376157407407409</v>
+      </c>
+      <c r="B426">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>0.18409722222222222</v>
+      </c>
+      <c r="B427">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>0.18445601851851853</v>
+      </c>
+      <c r="B428">
+        <v>22.46</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>0.18487268518518518</v>
+      </c>
+      <c r="B429">
+        <v>27.92</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>0.18555555555555556</v>
+      </c>
+      <c r="B430">
+        <v>12.29</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>0.18585648148148148</v>
+      </c>
+      <c r="B431">
+        <v>11.29</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>0.18609953703703705</v>
+      </c>
+      <c r="B432">
+        <v>22.13</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>0.18653935185185186</v>
+      </c>
+      <c r="B433">
+        <v>23.06</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>0.18694444444444444</v>
+      </c>
+      <c r="B434">
+        <v>22.72</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>0.18739583333333332</v>
+      </c>
+      <c r="B435">
+        <v>26.17</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>0.18796296296296297</v>
+      </c>
+      <c r="B436">
+        <v>13.92</v>
+      </c>
+      <c r="C436" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>0.18820601851851851</v>
+      </c>
+      <c r="B437">
+        <v>23.04</v>
+      </c>
+      <c r="C437" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>0.18870370370370371</v>
+      </c>
+      <c r="B438">
+        <v>15.3</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>0.18900462962962963</v>
+      </c>
+      <c r="B439">
+        <v>17.52</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="B440">
+        <v>10.78</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>0.1897685185185185</v>
+      </c>
+      <c r="B441">
+        <v>28.74</v>
+      </c>
+      <c r="C441" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>0.19024305555555557</v>
+      </c>
+      <c r="B442">
+        <v>16.16</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>0.19057870370370369</v>
+      </c>
+      <c r="B443">
+        <v>19.55</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <v>0.19098379629629628</v>
+      </c>
+      <c r="B444">
+        <v>14.4</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>0.19126157407407407</v>
+      </c>
+      <c r="B445">
+        <v>22.22</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>0.19168981481481481</v>
+      </c>
+      <c r="B446">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>0.19204861111111113</v>
+      </c>
+      <c r="B447">
+        <v>13.94</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>0.19237268518518516</v>
+      </c>
+      <c r="B448">
+        <v>11.68</v>
+      </c>
+      <c r="C448" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>0.19266203703703702</v>
+      </c>
+      <c r="B449">
+        <v>17.47</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>0.19310185185185183</v>
+      </c>
+      <c r="B450">
+        <v>24.82</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>0.1935300925925926</v>
+      </c>
+      <c r="B451">
+        <v>23.99</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>0.19391203703703705</v>
+      </c>
+      <c r="B452">
+        <v>19.03</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>0.19423611111111114</v>
+      </c>
+      <c r="B453">
+        <v>24.02</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>0.19461805555555556</v>
+      </c>
+      <c r="B454">
+        <v>14.96</v>
+      </c>
+      <c r="C454" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>0.19489583333333335</v>
+      </c>
+      <c r="B455">
+        <v>10.28</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>0.19512731481481482</v>
+      </c>
+      <c r="B456">
+        <v>19</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>0.19546296296296295</v>
+      </c>
+      <c r="B457">
+        <v>24.58</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>0.19587962962962965</v>
+      </c>
+      <c r="B458">
+        <v>14.66</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>0.19616898148148146</v>
+      </c>
+      <c r="B459">
+        <v>17.52</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>0.19653935185185187</v>
+      </c>
+      <c r="B460">
+        <v>24.56</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>0.1970949074074074</v>
+      </c>
+      <c r="B461">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
+        <v>0.19747685185185185</v>
+      </c>
+      <c r="B462">
+        <v>25.85</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="B463">
+        <v>20.52</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
+        <v>0.19841435185185186</v>
+      </c>
+      <c r="B464">
+        <v>21.15</v>
+      </c>
+      <c r="C464" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
+        <v>0.1987615740740741</v>
+      </c>
+      <c r="B465">
+        <v>13.9</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
+        <v>0.19901620370370368</v>
+      </c>
+      <c r="B466">
+        <v>11.79</v>
+      </c>
+      <c r="C466" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
+        <v>0.199375</v>
+      </c>
+      <c r="B467">
+        <v>10.78</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
+        <v>0.19951388888888888</v>
+      </c>
+      <c r="B468">
+        <v>10.6</v>
+      </c>
+      <c r="C468" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
+        <v>0.19986111111111113</v>
+      </c>
+      <c r="B469">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>0.20018518518518516</v>
+      </c>
+      <c r="B470">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>0.2005902777777778</v>
+      </c>
+      <c r="B471">
+        <v>18.77</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>0.20093749999999999</v>
+      </c>
+      <c r="B472">
+        <v>10.35</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>0.20141203703703703</v>
+      </c>
+      <c r="B473">
+        <v>11.92</v>
+      </c>
+      <c r="C473" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>0.20166666666666666</v>
+      </c>
+      <c r="B474">
+        <v>14.53</v>
+      </c>
+      <c r="C474" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>0.20266203703703703</v>
+      </c>
+      <c r="B475">
+        <v>10.9</v>
+      </c>
+      <c r="C475" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>0.2028587962962963</v>
+      </c>
+      <c r="B476">
+        <v>13.08</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>0.20314814814814816</v>
+      </c>
+      <c r="B477">
+        <v>10.38</v>
+      </c>
+      <c r="C477" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>0.20335648148148147</v>
+      </c>
+      <c r="B478">
+        <v>10.58</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>0.20364583333333333</v>
+      </c>
+      <c r="B479">
+        <v>10.62</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>0.20390046296296296</v>
+      </c>
+      <c r="B480">
+        <v>21.14</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>0.20432870370370371</v>
+      </c>
+      <c r="B481">
+        <v>11.48</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>0.20459490740740741</v>
+      </c>
+      <c r="B482">
+        <v>16.77</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>0.2048726851851852</v>
+      </c>
+      <c r="B483">
+        <v>21.32</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>0.20524305555555555</v>
+      </c>
+      <c r="B484">
+        <v>22.67</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>0.20564814814814814</v>
+      </c>
+      <c r="B485">
+        <v>19.43</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>0.20594907407407406</v>
+      </c>
+      <c r="B486">
+        <v>23.84</v>
+      </c>
+      <c r="C486" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>0.20641203703703703</v>
+      </c>
+      <c r="B487">
+        <v>13.9</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>0.20671296296296296</v>
+      </c>
+      <c r="B488">
+        <v>20.12</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>0.20695601851851853</v>
+      </c>
+      <c r="B489">
+        <v>18.29</v>
+      </c>
+      <c r="C489" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>0.20731481481481481</v>
+      </c>
+      <c r="B490">
+        <v>14.02</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>0.20761574074074074</v>
+      </c>
+      <c r="B491">
+        <v>22.51</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>0.20799768518518516</v>
+      </c>
+      <c r="B492">
+        <v>18.38</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>0.20832175925925925</v>
+      </c>
+      <c r="B493">
+        <v>23.94</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>0.20877314814814815</v>
+      </c>
+      <c r="B494">
+        <v>22.38</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>0.20922453703703703</v>
+      </c>
+      <c r="B495">
+        <v>16.8</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>0.20952546296296296</v>
+      </c>
+      <c r="B496">
+        <v>19.53</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>0.20988425925925924</v>
+      </c>
+      <c r="B497">
+        <v>19.25</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>0.21024305555555556</v>
+      </c>
+      <c r="B498">
+        <v>20.09</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>0.21062499999999998</v>
+      </c>
+      <c r="B499">
+        <v>13.46</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>0.21079861111111112</v>
+      </c>
+      <c r="B500">
+        <v>13.45</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
+        <v>0.21112268518518518</v>
+      </c>
+      <c r="B501">
+        <v>14.68</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
+        <v>0.21145833333333333</v>
+      </c>
+      <c r="B502">
+        <v>16.32</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
+        <v>0.21173611111111112</v>
+      </c>
+      <c r="B503">
+        <v>17.2</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
+        <v>0.21212962962962964</v>
+      </c>
+      <c r="B504">
+        <v>23.83</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>0.21252314814814813</v>
+      </c>
+      <c r="B505">
+        <v>16.82</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
+        <v>0.21287037037037038</v>
+      </c>
+      <c r="B506">
+        <v>21.2</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
+        <v>0.21326388888888889</v>
+      </c>
+      <c r="B507">
+        <v>18.78</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
+        <v>0.21359953703703705</v>
+      </c>
+      <c r="B508">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="C508" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
+        <v>0.21400462962962963</v>
+      </c>
+      <c r="B509">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="C509" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
+        <v>0.21425925925925926</v>
+      </c>
+      <c r="B510">
+        <v>16.64</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
+        <v>0.21460648148148151</v>
+      </c>
+      <c r="B511">
+        <v>20.59</v>
+      </c>
+      <c r="C511" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>0.21498842592592593</v>
+      </c>
+      <c r="B512">
+        <v>15.26</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>0.21531250000000002</v>
+      </c>
+      <c r="B513">
+        <v>18.36</v>
+      </c>
+      <c r="C513" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>0.21563657407407408</v>
+      </c>
+      <c r="B514">
+        <v>24.24</v>
+      </c>
+      <c r="C514" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>0.21603009259259257</v>
+      </c>
+      <c r="B515">
+        <v>24.43</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>0.21645833333333334</v>
+      </c>
+      <c r="B516">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>0.21682870370370369</v>
+      </c>
+      <c r="B517">
+        <v>18.09</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>0.21721064814814817</v>
+      </c>
+      <c r="B518">
+        <v>21.62</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
+        <v>0.21762731481481482</v>
+      </c>
+      <c r="B519">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="C519" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
+        <v>0.2180324074074074</v>
+      </c>
+      <c r="B520">
+        <v>18.95</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
+        <v>0.21829861111111112</v>
+      </c>
+      <c r="B521">
+        <v>10.3</v>
+      </c>
+      <c r="C521" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
+        <v>0.21864583333333332</v>
+      </c>
+      <c r="B522">
+        <v>10.43</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
+        <v>0.21886574074074075</v>
+      </c>
+      <c r="B523">
+        <v>16.97</v>
+      </c>
+      <c r="C523" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
+        <v>0.21914351851851852</v>
+      </c>
+      <c r="B524">
+        <v>12.29</v>
+      </c>
+      <c r="C524" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
+        <v>0.21945601851851851</v>
+      </c>
+      <c r="B525">
+        <v>14.98</v>
+      </c>
+      <c r="C525" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
+        <v>0.21968750000000001</v>
+      </c>
+      <c r="B526">
+        <v>13</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
+        <v>0.21997685185185187</v>
+      </c>
+      <c r="B527">
+        <v>14.38</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
+        <v>0.22018518518518518</v>
+      </c>
+      <c r="B528">
+        <v>31.06</v>
+      </c>
+      <c r="C528" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>0.22556712962962963</v>
+      </c>
+      <c r="B529">
+        <v>25.72</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
+        <v>0.22105324074074073</v>
+      </c>
+      <c r="B530">
+        <v>25.87</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
+        <v>0.22146990740740743</v>
+      </c>
+      <c r="B531">
+        <v>25.12</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
+        <v>0.22192129629629631</v>
+      </c>
+      <c r="B532">
+        <v>23.01</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
+        <v>0.2222800925925926</v>
+      </c>
+      <c r="B533">
+        <v>23.15</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
+        <v>0.22265046296296298</v>
+      </c>
+      <c r="B534">
+        <v>13.25</v>
+      </c>
+      <c r="C534" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
+        <v>0.22282407407407409</v>
+      </c>
+      <c r="B535">
+        <v>24.03</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
+        <v>0.22320601851851851</v>
+      </c>
+      <c r="B536">
+        <v>11.99</v>
+      </c>
+      <c r="C536" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
+        <v>0.22336805555555553</v>
+      </c>
+      <c r="B537">
+        <v>17.88</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
+        <v>0.22372685185185184</v>
+      </c>
+      <c r="B538">
+        <v>18.07</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
+        <v>0.22410879629629629</v>
+      </c>
+      <c r="B539">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
+        <v>0.22445601851851849</v>
+      </c>
+      <c r="B540">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
+        <v>0.22486111111111109</v>
+      </c>
+      <c r="B541">
+        <v>10.7</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
+        <v>0.22503472222222221</v>
+      </c>
+      <c r="B542">
+        <v>14</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
+        <v>0.22545138888888885</v>
+      </c>
+      <c r="B543">
+        <v>13.68</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
+        <v>0.22571759259259258</v>
+      </c>
+      <c r="B544">
+        <v>12.71</v>
+      </c>
+      <c r="C544" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
+        <v>0.22599537037037035</v>
+      </c>
+      <c r="B545">
+        <v>10.35</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
+        <v>0.22616898148148146</v>
+      </c>
+      <c r="B546">
+        <v>21.45</v>
+      </c>
+      <c r="C546" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
+        <v>0.22656249999999997</v>
+      </c>
+      <c r="B547">
+        <v>19.02</v>
+      </c>
+      <c r="C547" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
+        <v>0.22699074074074072</v>
+      </c>
+      <c r="B548">
+        <v>10.7</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
+        <v>0.22723379629629625</v>
+      </c>
+      <c r="B549">
+        <v>18.46</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
+        <v>0.22771990740740738</v>
+      </c>
+      <c r="B550">
+        <v>15.96</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
+        <v>0.22805555555555551</v>
+      </c>
+      <c r="B551">
+        <v>23.58</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>0.22847222222222219</v>
+      </c>
+      <c r="B552">
+        <v>11</v>
+      </c>
+      <c r="C552" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
+        <v>0.22873842592592589</v>
+      </c>
+      <c r="B553">
+        <v>16.28</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>0.22920138888888886</v>
+      </c>
+      <c r="B554">
+        <v>25.86</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
+        <v>0.22967592592592589</v>
+      </c>
+      <c r="B555">
+        <v>23.12</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>0.23010416666666664</v>
+      </c>
+      <c r="B556">
+        <v>14.57</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
+        <v>0.23048611111111106</v>
+      </c>
+      <c r="B557">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>0.23090277777777773</v>
+      </c>
+      <c r="B558">
+        <v>23.88</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>0.23128472222222218</v>
+      </c>
+      <c r="B559">
+        <v>12.06</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>0.23155092592592588</v>
+      </c>
+      <c r="B560">
+        <v>20.5</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>0.2319444444444444</v>
+      </c>
+      <c r="B561">
+        <v>29.36</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>0.2324305555555555</v>
+      </c>
+      <c r="B562">
+        <v>25.55</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
+        <v>0.23283564814814811</v>
+      </c>
+      <c r="B563">
+        <v>18.38</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>0.23313657407407404</v>
+      </c>
+      <c r="B564">
+        <v>24.86</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
+        <v>0.23355324074074069</v>
+      </c>
+      <c r="B565">
+        <v>32.79</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>0.23408564814814814</v>
+      </c>
+      <c r="B566">
+        <v>26.16</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
+        <v>0.23453703703703699</v>
+      </c>
+      <c r="B567">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>0.23503472222222221</v>
+      </c>
+      <c r="B568">
+        <v>10.24</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
+        <v>0.23534722222222215</v>
+      </c>
+      <c r="B569">
+        <v>29.28</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>0.23641203703703698</v>
+      </c>
+      <c r="B570">
+        <v>30.67</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
+        <v>0.23696759259259254</v>
+      </c>
+      <c r="B571">
+        <v>25.81</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>0.23740740740740734</v>
+      </c>
+      <c r="B572">
+        <v>23.3</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
+        <v>0.23782407407407402</v>
+      </c>
+      <c r="B573">
+        <v>27.22</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>0.23831018518518512</v>
+      </c>
+      <c r="B574">
+        <v>26.53</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
+        <v>0.238761574074074</v>
+      </c>
+      <c r="B575">
+        <v>28.32</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>0.23923611111111104</v>
+      </c>
+      <c r="B576">
+        <v>35.020000000000003</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
+        <v>0.23978009259259253</v>
+      </c>
+      <c r="B577">
+        <v>16.48</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>0.24012731481481475</v>
+      </c>
+      <c r="B578">
+        <v>31.92</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
+        <v>0.24062499999999992</v>
+      </c>
+      <c r="B579">
+        <v>34.44</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>0.24119212962962955</v>
+      </c>
+      <c r="B580">
+        <v>33.78</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
+        <v>0.24180555555555547</v>
+      </c>
+      <c r="B581">
+        <v>15.68</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
+        <v>0.24212962962962956</v>
+      </c>
+      <c r="B582">
+        <v>31.44</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1">
+        <v>0.24269675925925918</v>
+      </c>
+      <c r="B583">
+        <v>29.12</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1">
+        <v>0.24321759259259251</v>
+      </c>
+      <c r="B584">
+        <v>17.62</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1">
+        <v>0.24358796296296287</v>
+      </c>
+      <c r="B585">
+        <v>25.56</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1">
+        <v>0.24405092592592584</v>
+      </c>
+      <c r="B586">
+        <v>31.42</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1">
+        <v>0.24458333333333324</v>
+      </c>
+      <c r="B587">
+        <v>10.35</v>
+      </c>
+      <c r="C587" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
+        <v>0.24472222222222212</v>
+      </c>
+      <c r="B588">
+        <v>30.61</v>
+      </c>
+      <c r="C588" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1">
+        <v>0.24521990740740732</v>
+      </c>
+      <c r="B589">
+        <v>23</v>
+      </c>
+      <c r="C589" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
+        <v>0.24565972222222213</v>
+      </c>
+      <c r="B590">
+        <v>13.48</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1">
+        <v>0.2458449074074073</v>
+      </c>
+      <c r="B591">
+        <v>12.05</v>
+      </c>
+      <c r="C591" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1">
+        <v>0.24605324074074064</v>
+      </c>
+      <c r="B592">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1">
+        <v>0.24644675925925916</v>
+      </c>
+      <c r="B593">
+        <v>29.12</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
+        <v>0.24682870370370361</v>
+      </c>
+      <c r="B594">
+        <v>25.02</v>
+      </c>
+      <c r="C594" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1">
+        <v>0.24733796296296287</v>
+      </c>
+      <c r="B595">
+        <v>20.16</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
+        <v>0.2476273148148147</v>
+      </c>
+      <c r="B596">
+        <v>12</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1">
+        <v>0.24781249999999991</v>
+      </c>
+      <c r="B597">
+        <v>19.34</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
+        <v>0.24811342592592583</v>
+      </c>
+      <c r="B598">
+        <v>21.58</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1">
+        <v>0.24854166666666655</v>
+      </c>
+      <c r="B599">
+        <v>13.22</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
+        <v>0.24874999999999989</v>
+      </c>
+      <c r="B600">
+        <v>11.12</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1">
+        <v>0.24903935185185175</v>
+      </c>
+      <c r="B601">
+        <v>10.09</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
+        <v>0.24917824074074063</v>
+      </c>
+      <c r="B602">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
+        <v>0.24967592592592583</v>
+      </c>
+      <c r="B603">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
+        <v>0.24996527777777766</v>
+      </c>
+      <c r="B604">
+        <v>24.98</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1">
+        <v>0.25037037037037024</v>
+      </c>
+      <c r="B605">
+        <v>13.71</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
+        <v>0.25069444444444433</v>
+      </c>
+      <c r="B606">
+        <v>11.08</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1">
+        <v>0.25090277777777764</v>
+      </c>
+      <c r="B607">
+        <v>16.86</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1">
+        <v>0.25128472222222209</v>
+      </c>
+      <c r="B608">
+        <v>25.34</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1">
+        <v>0.2517245370370369</v>
+      </c>
+      <c r="B609">
+        <v>19.09</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1">
+        <v>0.25201388888888876</v>
+      </c>
+      <c r="B610">
+        <v>22.4</v>
+      </c>
+      <c r="C610" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1">
+        <v>0.25611111111111096</v>
+      </c>
+      <c r="B611">
+        <v>31.48</v>
+      </c>
+      <c r="C611" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1">
+        <v>0.25679398148148136</v>
+      </c>
+      <c r="B612">
+        <v>10.23</v>
+      </c>
+      <c r="C612" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1">
+        <v>0.2575694444444443</v>
+      </c>
+      <c r="B613">
+        <v>19.47</v>
+      </c>
+      <c r="C613" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1">
+        <v>0.25782407407407393</v>
+      </c>
+      <c r="B614">
+        <v>15.31</v>
+      </c>
+      <c r="C614" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1">
+        <v>0.25805555555555543</v>
+      </c>
+      <c r="B615">
+        <v>12.01</v>
+      </c>
+      <c r="C615" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1">
+        <v>0.25836805555555542</v>
+      </c>
+      <c r="B616">
+        <v>14.51</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1">
+        <v>0.25858796296296283</v>
+      </c>
+      <c r="B617">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="C617" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1">
+        <v>0.25891203703703691</v>
+      </c>
+      <c r="B618">
+        <v>14.88</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1">
+        <v>0.25917824074074058</v>
+      </c>
+      <c r="B619">
+        <v>14.56</v>
+      </c>
+      <c r="C619" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1">
+        <v>0.25946759259259244</v>
+      </c>
+      <c r="B620">
+        <v>13.5</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1">
+        <v>0.25972222222222208</v>
+      </c>
+      <c r="B621">
+        <v>15.9</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1">
+        <v>0.26004629629629616</v>
+      </c>
+      <c r="B622">
+        <v>19.02</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1">
+        <v>0.26038194444444429</v>
+      </c>
+      <c r="B623">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1">
+        <v>0.26067129629629615</v>
+      </c>
+      <c r="B624">
+        <v>20.83</v>
+      </c>
+      <c r="C624" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1">
+        <v>0.26101851851851837</v>
+      </c>
+      <c r="B625">
+        <v>17.63</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1">
+        <v>0.26130787037037023</v>
+      </c>
+      <c r="B626">
+        <v>22.77</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1">
+        <v>0.26166666666666649</v>
+      </c>
+      <c r="B627">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1">
+        <v>0.26195601851851835</v>
+      </c>
+      <c r="B628">
+        <v>13.85</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1">
+        <v>0.26222222222222208</v>
+      </c>
+      <c r="B629">
+        <v>19.28</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1">
+        <v>0.26260416666666653</v>
+      </c>
+      <c r="B630">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1">
+        <v>0.26296296296296279</v>
+      </c>
+      <c r="B631">
+        <v>20.38</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1">
+        <v>0.26336805555555542</v>
+      </c>
+      <c r="B632">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1">
+        <v>0.26378472222222205</v>
+      </c>
+      <c r="B633">
+        <v>10.7</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1">
+        <v>0.26400462962962945</v>
+      </c>
+      <c r="B634">
+        <v>11.33</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1">
+        <v>0.26420138888888872</v>
+      </c>
+      <c r="B635">
+        <v>18.02</v>
+      </c>
+      <c r="C635" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1">
+        <v>0.26447916666666649</v>
+      </c>
+      <c r="B636">
+        <v>16.77</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1">
+        <v>0.26476851851851835</v>
+      </c>
+      <c r="B637">
+        <v>14.9</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
+        <v>0.26504629629629611</v>
+      </c>
+      <c r="B638">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1">
+        <v>0.26534722222222207</v>
+      </c>
+      <c r="B639">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
+        <v>0.26571759259259242</v>
+      </c>
+      <c r="B640">
+        <v>17.2</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1">
+        <v>0.26603009259259242</v>
+      </c>
+      <c r="B641">
+        <v>16.71</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1">
+        <v>0.26633101851851837</v>
+      </c>
+      <c r="B642">
+        <v>16.84</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1">
+        <v>0.26663194444444427</v>
+      </c>
+      <c r="B643">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C643" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1">
+        <v>0.26693287037037022</v>
+      </c>
+      <c r="B644">
+        <v>18.02</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1">
+        <v>0.26723379629629612</v>
+      </c>
+      <c r="B645">
+        <v>20.21</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1">
+        <v>0.26761574074074057</v>
+      </c>
+      <c r="B646">
+        <v>16.02</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1">
+        <v>0.26802083333333315</v>
+      </c>
+      <c r="B647">
+        <v>10.9</v>
+      </c>
+      <c r="C647" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1">
+        <v>0.26831018518518501</v>
+      </c>
+      <c r="B648">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1">
+        <v>0.26859953703703687</v>
+      </c>
+      <c r="B649">
+        <v>16.98</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1">
+        <v>0.26891203703703687</v>
+      </c>
+      <c r="B650">
+        <v>20.13</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1">
+        <v>0.26927083333333318</v>
+      </c>
+      <c r="B651">
+        <v>21.27</v>
+      </c>
+      <c r="C651" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1">
+        <v>0.26971064814814799</v>
+      </c>
+      <c r="B652">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1">
+        <v>0.27009259259259244</v>
+      </c>
+      <c r="B653">
+        <v>15.59</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1">
+        <v>0.27047453703703683</v>
+      </c>
+      <c r="B654">
+        <v>19.66</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1">
+        <v>0.27079861111111092</v>
+      </c>
+      <c r="B655">
+        <v>17.09</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1">
+        <v>0.27106481481481465</v>
+      </c>
+      <c r="B656">
+        <v>27.4</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1">
+        <v>0.27150462962962946</v>
+      </c>
+      <c r="B657">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1">
+        <v>0.27177083333333313</v>
+      </c>
+      <c r="B658">
+        <v>21.22</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="1">
+        <v>0.27211805555555535</v>
+      </c>
+      <c r="B659">
+        <v>21.42</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
+        <v>0.27246527777777757</v>
+      </c>
+      <c r="B660">
+        <v>23.33</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1">
+        <v>0.27282407407407389</v>
+      </c>
+      <c r="B661">
+        <v>20.58</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1">
+        <v>0.27313657407407388</v>
+      </c>
+      <c r="B662">
+        <v>26.69</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1">
+        <v>0.27354166666666646</v>
+      </c>
+      <c r="B663">
+        <v>18.27</v>
+      </c>
+      <c r="C663" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1">
+        <v>0.27384259259259242</v>
+      </c>
+      <c r="B664">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1">
+        <v>0.27409722222222205</v>
+      </c>
+      <c r="B665">
+        <v>24.11</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1">
+        <v>0.27442129629629608</v>
+      </c>
+      <c r="B666">
+        <v>22.25</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1">
+        <v>0.27474537037037017</v>
+      </c>
+      <c r="B667">
+        <v>18.68</v>
+      </c>
+      <c r="C667" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1">
+        <v>0.27504629629629612</v>
+      </c>
+      <c r="B668">
+        <v>14</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1">
+        <v>0.27539351851851834</v>
+      </c>
+      <c r="B669">
+        <v>11.68</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="1">
+        <v>0.2757523148148146</v>
+      </c>
+      <c r="B670">
+        <v>10</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="1">
+        <v>0.27630787037037019</v>
+      </c>
+      <c r="B671">
+        <v>12.7</v>
+      </c>
+      <c r="C671" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="1">
+        <v>0.27684027777777759</v>
+      </c>
+      <c r="B672">
+        <v>22.45</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="1">
+        <v>0.27723379629629608</v>
+      </c>
+      <c r="B673">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="C673" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="1">
+        <v>0.27755787037037016</v>
+      </c>
+      <c r="B674">
+        <v>19.75</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="1">
+        <v>0.27788194444444425</v>
+      </c>
+      <c r="B675">
+        <v>20.43</v>
+      </c>
+      <c r="C675" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="1">
+        <v>0.27824074074074051</v>
+      </c>
+      <c r="B676">
+        <v>19.09</v>
+      </c>
+      <c r="C676" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="1">
+        <v>0.27847222222222201</v>
+      </c>
+      <c r="B677">
+        <v>12.95</v>
+      </c>
+      <c r="C677" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="1">
+        <v>0.27863425925925905</v>
+      </c>
+      <c r="B678">
+        <v>16.86</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="1">
+        <v>0.27895833333333314</v>
+      </c>
+      <c r="B679">
+        <v>16.73</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="1">
+        <v>0.27921296296296277</v>
+      </c>
+      <c r="B680">
+        <v>22.78</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="1">
+        <v>0.279560185185185</v>
+      </c>
+      <c r="B681">
+        <v>20.45</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="1">
+        <v>0.27991898148148125</v>
+      </c>
+      <c r="B682">
+        <v>22.21</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="1">
+        <v>0.28023148148148125</v>
+      </c>
+      <c r="B683">
+        <v>25.27</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="1">
+        <v>0.28064814814814792</v>
+      </c>
+      <c r="B684">
+        <v>23.13</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="1">
+        <v>0.2810763888888887</v>
+      </c>
+      <c r="B685">
+        <v>21.32</v>
+      </c>
+      <c r="C685" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="1">
+        <v>0.28137731481481459</v>
+      </c>
+      <c r="B686">
+        <v>24.35</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="1">
+        <v>0.28174768518518495</v>
+      </c>
+      <c r="B687">
+        <v>18.13</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="1">
+        <v>0.28200231481481458</v>
+      </c>
+      <c r="B688">
+        <v>20.55</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="1">
+        <v>0.28225694444444421</v>
+      </c>
+      <c r="B689">
+        <v>13.06</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="1">
+        <v>0.28246527777777758</v>
+      </c>
+      <c r="B690">
+        <v>17.64</v>
+      </c>
+      <c r="C690" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="1">
+        <v>0.28274305555555534</v>
+      </c>
+      <c r="B691">
+        <v>21.48</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="1">
+        <v>0.28309027777777757</v>
+      </c>
+      <c r="B692">
+        <v>21.74</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="1">
+        <v>0.28344907407407383</v>
+      </c>
+      <c r="B693">
+        <v>22.92</v>
+      </c>
+      <c r="C693" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="1">
+        <v>0.2838657407407405</v>
+      </c>
+      <c r="B694">
+        <v>19.98</v>
+      </c>
+      <c r="C694" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="1">
+        <v>0.28421296296296272</v>
+      </c>
+      <c r="B695">
+        <v>21.12</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="1">
+        <v>0.2846296296296294</v>
+      </c>
+      <c r="B696">
+        <v>28.82</v>
+      </c>
+      <c r="C696" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="1">
+        <v>0.28506944444444421</v>
+      </c>
+      <c r="B697">
+        <v>16.72</v>
+      </c>
+      <c r="C697" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="1">
+        <v>0.28528935185185161</v>
+      </c>
+      <c r="B698">
+        <v>14.92</v>
+      </c>
+      <c r="C698" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="1">
+        <v>0.28555555555555534</v>
+      </c>
+      <c r="B699">
+        <v>23.48</v>
+      </c>
+      <c r="C699" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="1">
+        <v>0.2859143518518516</v>
+      </c>
+      <c r="B700">
+        <v>17.16</v>
+      </c>
+      <c r="C700" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="1">
+        <v>0.28620370370370346</v>
+      </c>
+      <c r="B701">
+        <v>24.88</v>
+      </c>
+      <c r="C701" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="1">
+        <v>0.28660879629629604</v>
+      </c>
+      <c r="B702">
+        <v>19.82</v>
+      </c>
+      <c r="C702" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="1">
+        <v>0.28693287037037013</v>
+      </c>
+      <c r="B703">
+        <v>24.38</v>
+      </c>
+      <c r="C703" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="1">
+        <v>0.28726851851851826</v>
+      </c>
+      <c r="B704">
+        <v>22.26</v>
+      </c>
+      <c r="C704" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="1">
+        <v>0.28761574074074048</v>
+      </c>
+      <c r="B705">
+        <v>28.88</v>
+      </c>
+      <c r="C705" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="1">
+        <v>0.28804398148148125</v>
+      </c>
+      <c r="B706">
+        <v>23.06</v>
+      </c>
+      <c r="C706" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="1">
+        <v>0.28850694444444419</v>
+      </c>
+      <c r="B707">
+        <v>20.86</v>
+      </c>
+      <c r="C707" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="1">
+        <v>0.28885416666666641</v>
+      </c>
+      <c r="B708">
+        <v>15.26</v>
+      </c>
+      <c r="C708" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="1">
+        <v>0.28905092592592568</v>
+      </c>
+      <c r="B709">
+        <v>23.78</v>
+      </c>
+      <c r="C709" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="1">
+        <v>0.289409722222222</v>
+      </c>
+      <c r="B710">
+        <v>23.41</v>
+      </c>
+      <c r="C710" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="1">
+        <v>0.28979166666666639</v>
+      </c>
+      <c r="B711">
+        <v>24.67</v>
+      </c>
+      <c r="C711" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="1">
+        <v>0.29019675925925903</v>
+      </c>
+      <c r="B712">
+        <v>20</v>
+      </c>
+      <c r="C712" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="1">
+        <v>0.29050925925925902</v>
+      </c>
+      <c r="B713">
+        <v>22.94</v>
+      </c>
+      <c r="C713" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="1">
+        <v>0.29084490740740715</v>
+      </c>
+      <c r="B714">
+        <v>10.17</v>
+      </c>
+      <c r="C714" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="1">
+        <v>0.29097222222222197</v>
+      </c>
+      <c r="B715">
+        <v>18.32</v>
+      </c>
+      <c r="C715" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="1">
+        <v>0.29135416666666641</v>
+      </c>
+      <c r="B716">
+        <v>26.9</v>
+      </c>
+      <c r="C716" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="1">
+        <v>0.2917476851851849</v>
+      </c>
+      <c r="B717">
+        <v>20.8</v>
+      </c>
+      <c r="C717" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="1">
+        <v>0.29211805555555531</v>
+      </c>
+      <c r="B718">
+        <v>14.96</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="1">
+        <v>0.29240740740740717</v>
+      </c>
+      <c r="B719">
+        <v>20.3</v>
+      </c>
+      <c r="C719" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="1">
+        <v>0.29281249999999975</v>
+      </c>
+      <c r="B720">
+        <v>25.84</v>
+      </c>
+      <c r="C720" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="1">
+        <v>0.2931944444444442</v>
+      </c>
+      <c r="B721">
+        <v>18.36</v>
+      </c>
+      <c r="C721" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="1">
+        <v>0.29351851851851823</v>
+      </c>
+      <c r="B722">
+        <v>24.9</v>
+      </c>
+      <c r="C722" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="1">
+        <v>0.29390046296296268</v>
+      </c>
+      <c r="B723">
+        <v>20.52</v>
+      </c>
+      <c r="C723" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="1">
+        <v>0.29431712962962936</v>
+      </c>
+      <c r="B724">
+        <v>25.08</v>
+      </c>
+      <c r="C724" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="1">
+        <v>0.29474537037037007</v>
+      </c>
+      <c r="B725">
+        <v>24.62</v>
+      </c>
+      <c r="C725" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="1">
+        <v>0.29512731481481452</v>
+      </c>
+      <c r="B726">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="C726" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="1">
+        <v>0.29548611111111084</v>
+      </c>
+      <c r="B727">
+        <v>21.34</v>
+      </c>
+      <c r="C727" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="1">
+        <v>0.2957754629629627</v>
+      </c>
+      <c r="B728">
+        <v>26.64</v>
+      </c>
+      <c r="C728" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="1">
+        <v>0.29663194444444418</v>
+      </c>
+      <c r="B729">
+        <v>54.8</v>
+      </c>
+      <c r="C729" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="1">
+        <v>0.29928240740740714</v>
+      </c>
+      <c r="B730">
+        <v>10.49</v>
+      </c>
+      <c r="C730" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="1">
+        <v>0.29951388888888858</v>
+      </c>
+      <c r="B731">
+        <v>11.92</v>
+      </c>
+      <c r="C731" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" s="1">
+        <v>0.29972222222222195</v>
+      </c>
+      <c r="B732">
+        <v>13.5</v>
+      </c>
+      <c r="C732" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" s="1">
+        <v>0.29994212962962935</v>
+      </c>
+      <c r="B733">
+        <v>11.07</v>
+      </c>
+      <c r="C733" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" s="1">
+        <v>0.30013888888888862</v>
+      </c>
+      <c r="B734">
+        <v>11.76</v>
+      </c>
+      <c r="C734" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" s="1">
+        <v>0.30049768518518488</v>
+      </c>
+      <c r="B735">
+        <v>12.93</v>
+      </c>
+      <c r="C735" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" s="1">
+        <v>0.30075231481481451</v>
+      </c>
+      <c r="B736">
+        <v>17.66</v>
+      </c>
+      <c r="C736" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" s="1">
+        <v>0.30116898148148119</v>
+      </c>
+      <c r="B737">
+        <v>11.7</v>
+      </c>
+      <c r="C737" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" s="1">
+        <v>0.30134259259259233</v>
+      </c>
+      <c r="B738">
+        <v>19.02</v>
+      </c>
+      <c r="C738" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" s="1">
+        <v>0.30170138888888859</v>
+      </c>
+      <c r="B739">
+        <v>15.05</v>
+      </c>
+      <c r="C739" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740" s="1">
+        <v>0.30201388888888858</v>
+      </c>
+      <c r="B740">
+        <v>11</v>
+      </c>
+      <c r="C740" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741" s="1">
+        <v>0.30219907407407376</v>
+      </c>
+      <c r="B741">
+        <v>15.91</v>
+      </c>
+      <c r="C741" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" s="1">
+        <v>0.30248842592592562</v>
+      </c>
+      <c r="B742">
+        <v>17.97</v>
+      </c>
+      <c r="C742" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743" s="1">
+        <v>0.30293981481481452</v>
+      </c>
+      <c r="B743">
+        <v>12.24</v>
+      </c>
+      <c r="C743" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744" s="1">
+        <v>0.30314814814814783</v>
+      </c>
+      <c r="B744">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C744" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745" s="1">
+        <v>0.30350694444444415</v>
+      </c>
+      <c r="B745">
+        <v>12.74</v>
+      </c>
+      <c r="C745" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746" s="1">
+        <v>0.30379629629629601</v>
+      </c>
+      <c r="B746">
+        <v>16.64</v>
+      </c>
+      <c r="C746" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747" s="1">
+        <v>0.3041203703703701</v>
+      </c>
+      <c r="B747">
+        <v>21.54</v>
+      </c>
+      <c r="C747" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748" s="1">
+        <v>0.30456018518518491</v>
+      </c>
+      <c r="B748">
+        <v>14.22</v>
+      </c>
+      <c r="C748" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" s="1">
+        <v>0.30478009259259231</v>
+      </c>
+      <c r="B749">
+        <v>10.06</v>
+      </c>
+      <c r="C749" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" s="1">
+        <v>0.30491898148148117</v>
+      </c>
+      <c r="B750">
+        <v>13.94</v>
+      </c>
+      <c r="C750" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" s="1">
+        <v>0.30519675925925893</v>
+      </c>
+      <c r="B751">
+        <v>14.08</v>
+      </c>
+      <c r="C751" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752" s="1">
+        <v>0.30554398148148115</v>
+      </c>
+      <c r="B752">
+        <v>15.97</v>
+      </c>
+      <c r="C752" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753" s="1">
+        <v>0.30608796296296265</v>
+      </c>
+      <c r="B753">
+        <v>10.02</v>
+      </c>
+      <c r="C753" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A754" s="1">
+        <v>0.30627314814814782</v>
+      </c>
+      <c r="B754">
+        <v>12.07</v>
+      </c>
+      <c r="C754" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A755" s="1">
+        <v>0.30655092592592559</v>
+      </c>
+      <c r="B755">
+        <v>12.77</v>
+      </c>
+      <c r="C755" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A756" s="1">
+        <v>0.30679398148148118</v>
+      </c>
+      <c r="B756">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="C756" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A757" s="1">
+        <v>0.30715277777777744</v>
+      </c>
+      <c r="B757">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="C757" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A758" s="1">
+        <v>0.30746527777777749</v>
+      </c>
+      <c r="B758">
+        <v>20.79</v>
+      </c>
+      <c r="C758" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A759" s="1">
+        <v>0.30780092592592562</v>
+      </c>
+      <c r="B759">
+        <v>15.68</v>
+      </c>
+      <c r="C759" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A760" s="1">
+        <v>0.30810185185185152</v>
+      </c>
+      <c r="B760">
+        <v>21.95</v>
+      </c>
+      <c r="C760" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A761" s="1">
+        <v>0.30847222222222193</v>
+      </c>
+      <c r="B761">
+        <v>11.03</v>
+      </c>
+      <c r="C761" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A762" s="1">
+        <v>0.30866898148148114</v>
+      </c>
+      <c r="B762">
+        <v>21.99</v>
+      </c>
+      <c r="C762" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A763" s="1">
+        <v>0.30903935185185155</v>
+      </c>
+      <c r="B763">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C763" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A764" s="1">
+        <v>0.30943287037037004</v>
+      </c>
+      <c r="B764">
+        <v>17.02</v>
+      </c>
+      <c r="C764" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A765" s="1">
+        <v>0.30974537037037003</v>
+      </c>
+      <c r="B765">
+        <v>23.74</v>
+      </c>
+      <c r="C765" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A766" s="1">
+        <v>0.31021990740740707</v>
+      </c>
+      <c r="B766">
+        <v>19.55</v>
+      </c>
+      <c r="C766" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A767" s="1">
+        <v>0.31064814814814784</v>
+      </c>
+      <c r="B767">
+        <v>17.3</v>
+      </c>
+      <c r="C767" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A768" s="1">
+        <v>0.31097222222222187</v>
+      </c>
+      <c r="B768">
+        <v>14.32</v>
+      </c>
+      <c r="C768" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769" s="1">
+        <v>0.31156249999999969</v>
+      </c>
+      <c r="B769">
+        <v>21.92</v>
+      </c>
+      <c r="C769" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770" s="1">
+        <v>0.31215277777777745</v>
+      </c>
+      <c r="B770">
+        <v>13.26</v>
+      </c>
+      <c r="C770" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771" s="1">
+        <v>0.31244212962962931</v>
+      </c>
+      <c r="B771">
+        <v>17.86</v>
+      </c>
+      <c r="C771" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772" s="1">
+        <v>0.31211805555555522</v>
+      </c>
+      <c r="B772">
+        <v>27.76</v>
+      </c>
+      <c r="C772" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A773" s="1">
+        <v>0.31289351851851821</v>
+      </c>
+      <c r="B773">
+        <v>21.95</v>
+      </c>
+      <c r="C773" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A774" s="1">
+        <v>0.31329861111111079</v>
+      </c>
+      <c r="B774">
+        <v>19.21</v>
+      </c>
+      <c r="C774" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A775" s="1">
+        <v>0.31438657407407372</v>
+      </c>
+      <c r="B775">
+        <v>28.36</v>
+      </c>
+      <c r="C775" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A776" s="1">
+        <v>0.31421296296296264</v>
+      </c>
+      <c r="B776">
+        <v>19.88</v>
+      </c>
+      <c r="C776" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A777" s="1">
+        <v>0.31519675925925894</v>
+      </c>
+      <c r="B777">
+        <v>12.65</v>
+      </c>
+      <c r="C777" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A778" s="1">
+        <v>0.31534722222222222</v>
+      </c>
+      <c r="B778">
+        <v>11.34</v>
+      </c>
+      <c r="C778" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779" s="1">
+        <v>0.31567129629629598</v>
+      </c>
+      <c r="B779">
+        <v>22.86</v>
+      </c>
+      <c r="C779" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A780" s="1">
+        <v>0.31614583333333302</v>
+      </c>
+      <c r="B780">
+        <v>26.84</v>
+      </c>
+      <c r="C780" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A781" s="1">
+        <v>0.31663194444444409</v>
+      </c>
+      <c r="B781">
+        <v>24.87</v>
+      </c>
+      <c r="C781" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A782" s="1">
+        <v>0.31709490740740703</v>
+      </c>
+      <c r="B782">
+        <v>24.58</v>
+      </c>
+      <c r="C782" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A783" s="1">
+        <v>0.31755787037037003</v>
+      </c>
+      <c r="B783">
+        <v>26.51</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A784" s="1">
+        <v>0.31804398148148111</v>
+      </c>
+      <c r="B784">
+        <v>22.7</v>
+      </c>
+      <c r="C784" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A785" s="1">
+        <v>0.31864583333333296</v>
+      </c>
+      <c r="B785">
+        <v>13.14</v>
+      </c>
+      <c r="C785" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A786" s="1">
+        <v>0.31899305555555518</v>
+      </c>
+      <c r="B786">
+        <v>16.28</v>
+      </c>
+      <c r="C786" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A787" s="1">
+        <v>0.31917824074074036</v>
+      </c>
+      <c r="B787">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="C787" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A788" s="1">
+        <v>0.31953703703703668</v>
+      </c>
+      <c r="B788">
+        <v>15.8</v>
+      </c>
+      <c r="C788" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A789" s="1">
+        <v>0.31978009259259221</v>
+      </c>
+      <c r="B789">
+        <v>23.19</v>
+      </c>
+      <c r="C789" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A790" s="1">
+        <v>0.32016203703703666</v>
+      </c>
+      <c r="B790">
+        <v>42.49</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A791" s="1">
+        <v>0.32082175925925888</v>
+      </c>
+      <c r="B791">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A792" s="1">
+        <v>0.32123842592592555</v>
+      </c>
+      <c r="B792">
+        <v>21.64</v>
+      </c>
+      <c r="C792" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A793" s="1">
+        <v>0.32170138888888855</v>
+      </c>
+      <c r="B793">
+        <v>36.81</v>
+      </c>
+      <c r="C793" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A794" s="1">
+        <v>0.3223726851851848</v>
+      </c>
+      <c r="B794">
+        <v>20.79</v>
+      </c>
+      <c r="C794" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A795" s="1">
+        <v>0.32278935185185148</v>
+      </c>
+      <c r="B795">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="C795" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A796" s="1">
+        <v>0.3256365740740737</v>
+      </c>
+      <c r="B796">
+        <v>10.42</v>
+      </c>
+      <c r="C796" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A797" s="1">
+        <v>0.32771990740740703</v>
+      </c>
+      <c r="B797">
+        <v>12.28</v>
+      </c>
+      <c r="C797" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A798" s="1">
+        <v>0.3279861111111107</v>
+      </c>
+      <c r="B798">
+        <v>11.88</v>
+      </c>
+      <c r="C798" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A799" s="1">
+        <v>0.32825231481481443</v>
+      </c>
+      <c r="B799">
+        <v>14.68</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A800" s="1">
+        <v>0.32854166666666629</v>
+      </c>
+      <c r="B800">
+        <v>13.44</v>
+      </c>
+      <c r="C800" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A801" s="1">
+        <v>0.32908564814814778</v>
+      </c>
+      <c r="B801">
+        <v>17.22</v>
+      </c>
+      <c r="C801" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A802" s="1">
+        <v>0.3295023148148144</v>
+      </c>
+      <c r="B802">
+        <v>15.4</v>
+      </c>
+      <c r="C802" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A803" s="1">
+        <v>0.32979166666666626</v>
+      </c>
+      <c r="B803">
+        <v>16.84</v>
+      </c>
+      <c r="C803" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A804" s="1">
+        <v>0.33062499999999961</v>
+      </c>
+      <c r="B804">
+        <v>12.53</v>
+      </c>
+      <c r="C804" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A805" s="1">
+        <v>0.33090277777777738</v>
+      </c>
+      <c r="B805">
+        <v>11.14</v>
+      </c>
+      <c r="C805" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A806" s="1">
+        <v>0.3315509259259255</v>
+      </c>
+      <c r="B806">
+        <v>13.96</v>
+      </c>
+      <c r="C806" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A807" s="1">
+        <v>0.33179398148148109</v>
+      </c>
+      <c r="B807">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C807" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A808" s="1">
+        <v>0.33214120370370331</v>
+      </c>
+      <c r="B808">
+        <v>22.1</v>
+      </c>
+      <c r="C808" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A809" s="1">
+        <v>0.33248842592592553</v>
+      </c>
+      <c r="B809">
+        <v>16.14</v>
+      </c>
+      <c r="C809" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A810" s="1">
+        <v>0.33274305555555517</v>
+      </c>
+      <c r="B810">
+        <v>21.23</v>
+      </c>
+      <c r="C810" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A811" s="1">
+        <v>0.33310185185185143</v>
+      </c>
+      <c r="B811">
+        <v>19.93</v>
+      </c>
+      <c r="C811" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A812" s="1">
+        <v>0.33347222222222184</v>
+      </c>
+      <c r="B812">
+        <v>15.28</v>
+      </c>
+      <c r="C812" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A813" s="1">
+        <v>0.33371527777777737</v>
+      </c>
+      <c r="B813">
+        <v>15.6</v>
+      </c>
+      <c r="C813" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A814" s="1">
+        <v>0.33432870370370327</v>
+      </c>
+      <c r="B814">
+        <v>14.68</v>
+      </c>
+      <c r="C814" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A815" s="1">
+        <v>0.33459490740740699</v>
+      </c>
+      <c r="B815">
+        <v>20.13</v>
+      </c>
+      <c r="C815" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A816" s="1">
+        <v>0.33635416666666623</v>
+      </c>
+      <c r="B816">
+        <v>13.19</v>
+      </c>
+      <c r="C816" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A817" s="1">
+        <v>0.33696759259259218</v>
+      </c>
+      <c r="B817">
+        <v>30.1</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A818" s="1">
+        <v>0.3373263888888885</v>
+      </c>
+      <c r="B818">
+        <v>31.47</v>
+      </c>
+      <c r="C818" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D818"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>